--- a/data/translations.03_buehler.xlsx
+++ b/data/translations.03_buehler.xlsx
@@ -82,7 +82,7 @@
     <t xml:space="preserve">suchen</t>
   </si>
   <si>
-    <t xml:space="preserve">rechercher</t>
+    <t xml:space="preserve">recherche</t>
   </si>
   <si>
     <t xml:space="preserve">reset</t>
@@ -100,7 +100,7 @@
     <t xml:space="preserve">ausdrucken als PDF</t>
   </si>
   <si>
-    <t xml:space="preserve">eprimer en format PDF</t>
+    <t xml:space="preserve">impression en format PDF</t>
   </si>
   <si>
     <t xml:space="preserve">print as PDF</t>
@@ -109,67 +109,13 @@
     <t xml:space="preserve">send_as_mail</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">als Email versenden an </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">MAIL@dfk-paris.org</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">envoyer par e-mail à </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">MAIL@dfk-paris.org</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">send as email to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">MAIL@dfk-paris.org</t>
-    </r>
+    <t xml:space="preserve">als Email versenden an MAIL@dfk-paris.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">envoyer à MAIL@dfk-paris.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">send as email to MAIL@dfk-paris.org</t>
   </si>
 </sst>
 </file>
@@ -179,7 +125,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -200,13 +146,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -280,14 +219,18 @@
   <dimension ref="A1:D139"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A7685" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C7720" activeCellId="0" sqref="C7720"/>
+      <selection pane="bottomLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="1" style="1" width="30.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="37.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="34.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="31.61"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="5" style="1" width="30.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="1" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1025" style="1" width="30.71"/>
   </cols>
@@ -402,13 +345,13 @@
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="0" t="s">
         <v>31</v>
       </c>
     </row>
@@ -543,11 +486,6 @@
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1" display="MAIL@dfk-paris.org"/>
-    <hyperlink ref="C9" r:id="rId2" display="MAIL@dfk-paris.org"/>
-    <hyperlink ref="D9" r:id="rId3" display="MAIL@dfk-paris.org"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/data/translations.03_buehler.xlsx
+++ b/data/translations.03_buehler.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="translations" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="translations" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t xml:space="preserve">key</t>
   </si>
@@ -109,13 +109,74 @@
     <t xml:space="preserve">send_as_mail</t>
   </si>
   <si>
-    <t xml:space="preserve">als Email versenden an MAIL@dfk-paris.org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">envoyer à MAIL@dfk-paris.org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">send as email to MAIL@dfk-paris.org</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">als Email versenden an </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">bibliothek@dfk-paris.org</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">envoyer à bibliothek@dfk-paris.org</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">send as email to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">bibliothek@dfk-paris.org</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bestellung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">commande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">record_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bestellnummer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">commander per n°</t>
+  </si>
+  <si>
+    <t xml:space="preserve">order by id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">order_address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bibliothek@dfk-paris.org</t>
   </si>
 </sst>
 </file>
@@ -125,7 +186,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -146,6 +207,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -190,13 +257,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -211,6 +282,112 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -221,15 +398,15 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="37.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="34.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="31.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="34.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="34.96"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="5" style="1" width="30.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="1" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1025" style="1" width="30.71"/>
@@ -341,23 +518,62 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -486,6 +702,10 @@
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1" display="bibliothek@dfk-paris.org"/>
+    <hyperlink ref="D9" r:id="rId2" display="bibliothek@dfk-paris.org"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/data/translations.03_buehler.xlsx
+++ b/data/translations.03_buehler.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t xml:space="preserve">key</t>
   </si>
@@ -52,6 +52,9 @@
     <t xml:space="preserve">Im Suchschlitz können der Name oder die Wikidata-Entitätsnummer (z. B. Q1234) eingegeben werden. Um zwei zusammengehörige Begriffe (meist Vor‑ und Nachname) zu suchen, ist ein »+« zwischen dem ersten und dem zweiten Begriff anzugeben (Beispiel: Dieterle +Marie).</t>
   </si>
   <si>
+    <t xml:space="preserve">On peut indiquer dans la barre de recherche le nom ou l’identifiant d’entité Wikidata (par ex. Q1234). Pour rechercher deux termes associés (le plus souvent prénom et nom), il faut indiquer un « + » entre le premier et le deuxième terme (ex. Marie+Dieterle)</t>
+  </si>
+  <si>
     <t xml:space="preserve">show_order</t>
   </si>
   <si>
@@ -109,47 +112,13 @@
     <t xml:space="preserve">send_as_mail</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">als Email versenden an </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">bibliothek@dfk-paris.org</t>
-    </r>
+    <t xml:space="preserve">als Email versenden an bibliothek@dfk-paris.org</t>
   </si>
   <si>
     <t xml:space="preserve">envoyer à bibliothek@dfk-paris.org</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">send as email to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">bibliothek@dfk-paris.org</t>
-    </r>
+    <t xml:space="preserve">send as email to bibliothek@dfk-paris.org</t>
   </si>
   <si>
     <t xml:space="preserve">order</t>
@@ -213,6 +182,7 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -257,13 +227,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -398,7 +372,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -406,7 +380,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="37.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="34.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="34.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="34.97"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="5" style="1" width="30.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="1" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1025" style="1" width="30.71"/>
@@ -447,131 +421,134 @@
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="D9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -703,8 +680,8 @@
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1" display="bibliothek@dfk-paris.org"/>
-    <hyperlink ref="D9" r:id="rId2" display="bibliothek@dfk-paris.org"/>
+    <hyperlink ref="B9" r:id="rId1" display="als Email versenden an bibliothek@dfk-paris.org"/>
+    <hyperlink ref="D9" r:id="rId2" display="send as email to bibliothek@dfk-paris.org"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
